--- a/biology/Botanique/Euphraise_dressée/Euphraise_dressée.xlsx
+++ b/biology/Botanique/Euphraise_dressée/Euphraise_dressée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Euphraise_dress%C3%A9e</t>
+          <t>Euphraise_dressée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Euphraise raide (Euphrasia stricta) est une espèce de plantes herbacées de la famille des Scrofulariacées selon la classification classique de Cronquist (1981)[1], mais de la famille des Orobanchacées selon les classifications phylogénétiques APG II, APG III et APG IV.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Euphraise raide (Euphrasia stricta) est une espèce de plantes herbacées de la famille des Scrofulariacées selon la classification classique de Cronquist (1981), mais de la famille des Orobanchacées selon les classifications phylogénétiques APG II, APG III et APG IV.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euphraise_dress%C3%A9e</t>
+          <t>Euphraise_dressée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur de 10 à 40 cm. Fleurs blanches avec une tache jaune vif, zygomorphes ; floraison de juin à octobre.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Euphraise_dress%C3%A9e</t>
+          <t>Euphraise_dressée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses calcicoles, rocailles et chemins secs.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Euphraise_dress%C3%A9e</t>
+          <t>Euphraise_dressée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Asie médiane.
 </t>
